--- a/OnBoard/output/trust/bio/Bio_Trust_23.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_23.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F2">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F3">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F4">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F5">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -635,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F6">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -776,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -823,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -870,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -917,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -932,12 +932,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F12">
@@ -947,19 +947,14 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>355</v>
+        <v>155</v>
       </c>
       <c r="I12">
-        <v>147</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L12">
@@ -969,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,12 +979,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F13">
@@ -999,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1016,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,12 +1026,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F14">
@@ -1046,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1063,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,12 +1073,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F15">
@@ -1093,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1110,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1125,12 +1120,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F16">
@@ -1140,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1157,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1172,7 +1167,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1187,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1204,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1219,7 +1214,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1234,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1251,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1266,7 +1261,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1281,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1298,7 +1293,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1313,7 +1308,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1328,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1345,7 +1340,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1360,7 +1355,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1375,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1392,7 +1387,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1407,12 +1402,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F22">
@@ -1422,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -1439,7 +1434,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1454,12 +1449,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F23">
@@ -1469,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1486,7 +1481,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1501,12 +1496,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F24">
@@ -1516,14 +1511,14 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L24">
@@ -1533,7 +1528,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1548,12 +1543,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F25">
@@ -1563,14 +1558,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>133</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L25">
@@ -1580,7 +1575,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1595,12 +1590,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F26">
@@ -1610,14 +1605,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>123</v>
+        <v>425</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>223</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="L26">
@@ -1627,7 +1622,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1642,12 +1637,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F27">
@@ -1657,14 +1652,14 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>77</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L27">
@@ -1674,7 +1669,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1689,12 +1684,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F28">
@@ -1704,14 +1699,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>142</v>
+        <v>287</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>73</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="L28">
@@ -1721,7 +1716,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1736,12 +1731,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F29">
@@ -1751,14 +1746,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L29">
@@ -1768,7 +1763,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1783,12 +1778,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PAGEACA</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F30">
@@ -1798,14 +1793,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L30">
@@ -1815,7 +1810,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1830,12 +1825,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F31">
@@ -1845,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -1862,7 +1857,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1877,12 +1872,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F32">
@@ -1892,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>106</v>
+        <v>426</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -1909,7 +1904,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1924,12 +1919,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F33">
@@ -1939,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="I33">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1951,7 +1946,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L33">
@@ -1961,7 +1956,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1976,12 +1971,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F34">
@@ -1991,14 +1986,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>150</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L34">
@@ -2008,7 +2008,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F35">
@@ -2038,14 +2038,19 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>183</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L35">
@@ -2055,7 +2060,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2070,12 +2075,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F36">
@@ -2085,14 +2090,14 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>106</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L36">
@@ -2102,7 +2107,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2117,12 +2122,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F37">
@@ -2132,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="I37">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2149,7 +2154,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2169,7 +2174,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F38">
@@ -2179,14 +2184,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="I38">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L38">
@@ -2196,7 +2206,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2216,7 +2226,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F39">
@@ -2226,14 +2236,19 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I39">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L39">
@@ -2243,7 +2258,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2263,7 +2278,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F40">
@@ -2273,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="I40">
         <v>-1</v>
@@ -2290,7 +2305,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2310,7 +2325,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F41">
@@ -2320,14 +2335,14 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>62</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L41">
@@ -2337,7 +2352,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2357,7 +2372,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F42">
@@ -2367,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="I42">
         <v>-1</v>
@@ -2384,7 +2399,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2404,7 +2419,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F43">
@@ -2414,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="I43">
         <v>-1</v>
@@ -2431,7 +2446,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2451,7 +2466,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F44">
@@ -2461,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I44">
         <v>-1</v>
@@ -2478,7 +2493,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2493,12 +2508,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F45">
@@ -2508,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I45">
         <v>-1</v>
@@ -2525,7 +2540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2540,12 +2555,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F46">
@@ -2555,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I46">
         <v>-1</v>
@@ -2572,7 +2587,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2587,12 +2602,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F47">
@@ -2602,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I47">
         <v>-1</v>
@@ -2619,7 +2634,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2634,12 +2649,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F48">
@@ -2649,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="I48">
         <v>-1</v>
@@ -2666,7 +2681,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2681,12 +2696,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F49">
@@ -2696,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I49">
         <v>-1</v>
@@ -2713,7 +2728,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2728,12 +2743,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F50">
@@ -2743,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="I50">
         <v>-1</v>
@@ -2760,7 +2775,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2775,7 +2790,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2790,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="I51">
         <v>-1</v>
@@ -2807,7 +2822,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2822,7 +2837,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2837,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="I52">
         <v>-1</v>
@@ -2854,7 +2869,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2869,7 +2884,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2884,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="I53">
         <v>-1</v>
@@ -2901,7 +2916,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2916,7 +2931,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2931,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I54">
         <v>-1</v>
@@ -2948,7 +2963,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2963,12 +2978,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F55">
@@ -2978,14 +2993,14 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="I55">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L55">
@@ -2995,7 +3010,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3010,12 +3025,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F56">
@@ -3025,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="I56">
         <v>-1</v>
@@ -3042,7 +3057,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3057,12 +3072,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F57">
@@ -3072,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="I57">
         <v>-1</v>
@@ -3089,7 +3104,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3104,7 +3119,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3119,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I58">
         <v>-1</v>
@@ -3136,7 +3151,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3151,12 +3166,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OCTOVUL</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F59">
@@ -3166,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I59">
         <v>-1</v>
@@ -3183,7 +3198,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3198,12 +3213,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F60">
@@ -3213,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="I60">
         <v>-1</v>
@@ -3230,7 +3245,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3245,7 +3260,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3260,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I61">
         <v>-1</v>
@@ -3277,7 +3292,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3292,7 +3307,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3307,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I62">
         <v>-1</v>
@@ -3324,7 +3339,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3339,12 +3354,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F63">
@@ -3354,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I63">
         <v>-1</v>
@@ -3371,7 +3386,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3386,12 +3401,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F64">
@@ -3401,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I64">
         <v>-1</v>
@@ -3418,7 +3433,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3433,12 +3448,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F65">
@@ -3448,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I65">
         <v>-1</v>
@@ -3465,7 +3480,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3480,12 +3495,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F66">
@@ -3495,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I66">
         <v>-1</v>
@@ -3512,7 +3527,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3527,12 +3542,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F67">
@@ -3542,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I67">
         <v>-1</v>
@@ -3559,7 +3574,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3574,12 +3589,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F68">
@@ -3589,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I68">
         <v>-1</v>
@@ -3606,7 +3621,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3621,12 +3636,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F69">
@@ -3636,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="I69">
         <v>-1</v>
@@ -3653,7 +3668,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3668,12 +3683,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F70">
@@ -3683,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="I70">
         <v>-1</v>
@@ -3700,7 +3715,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3715,12 +3730,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F71">
@@ -3730,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I71">
         <v>-1</v>
@@ -3747,7 +3762,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3762,12 +3777,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F72">
@@ -3777,14 +3792,19 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I72">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L72">
@@ -3794,7 +3814,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3809,12 +3829,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F73">
@@ -3824,14 +3844,14 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="I73">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L73">
@@ -3841,7 +3861,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3856,12 +3876,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F74">
@@ -3871,14 +3891,14 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="I74">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L74">
@@ -3888,7 +3908,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3903,12 +3923,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F75">
@@ -3918,14 +3938,14 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="I75">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L75">
@@ -3935,7 +3955,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3950,12 +3970,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F76">
@@ -3965,14 +3985,14 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="I76">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L76">
@@ -3982,7 +4002,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3997,12 +4017,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F77">
@@ -4012,14 +4032,14 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="I77">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L77">
@@ -4029,7 +4049,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4044,12 +4064,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F78">
@@ -4059,14 +4079,19 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="I78">
-        <v>-1</v>
+        <v>148</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L78">
@@ -4076,7 +4101,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4091,12 +4116,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F79">
@@ -4106,14 +4131,19 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="I79">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L79">
@@ -4123,7 +4153,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4138,12 +4168,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MICUOCE</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F80">
@@ -4153,14 +4183,19 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="I80">
-        <v>-1</v>
+        <v>138</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L80">
@@ -4170,7 +4205,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4185,12 +4220,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F81">
@@ -4200,14 +4235,19 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="I81">
-        <v>-1</v>
+        <v>150</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L81">
@@ -4217,7 +4257,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4232,12 +4272,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F82">
@@ -4247,14 +4287,19 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="I82">
-        <v>-1</v>
+        <v>131</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L82">
@@ -4264,7 +4309,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4279,12 +4324,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F83">
@@ -4294,14 +4339,19 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="I83">
-        <v>-1</v>
+        <v>181</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L83">
@@ -4311,7 +4361,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4326,12 +4376,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F84">
@@ -4341,24 +4391,34 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="I84">
-        <v>-1</v>
+        <v>171</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L84">
         <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>SS8133</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4373,12 +4433,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F85">
@@ -4388,24 +4448,34 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c r="I85">
-        <v>-1</v>
+        <v>281</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L85">
         <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>SS8134</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4425,7 +4495,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F86">
@@ -4435,24 +4505,34 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="I86">
-        <v>-1</v>
+        <v>152</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>HOLRA-5</t>
         </is>
       </c>
       <c r="L86">
         <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>SS8135</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4472,7 +4552,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>RAJAMIR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F87">
@@ -4482,10 +4562,10 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="I87">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4494,17 +4574,22 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>MEDSE-3</t>
+          <t>HOLRM-5</t>
         </is>
       </c>
       <c r="L87">
         <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>SS8136</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4519,12 +4604,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F88">
@@ -4534,24 +4619,34 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="I88">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L88">
         <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>SS8137</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4566,12 +4661,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F89">
@@ -4581,24 +4676,34 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>HOLRA-5</t>
         </is>
       </c>
       <c r="L89">
         <v>0</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>SS8138</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4613,7 +4718,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4628,10 +4733,10 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4645,7 +4750,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4660,7 +4765,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4675,10 +4780,10 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4692,7 +4797,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4707,12 +4812,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F92">
@@ -4722,34 +4827,24 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="I92">
-        <v>237</v>
+        <v>4</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L92">
         <v>0</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>SS7675</t>
-        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4764,12 +4859,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F93">
@@ -4779,34 +4874,24 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>287</v>
+        <v>8</v>
       </c>
       <c r="I93">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L93">
         <v>0</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>SS7676</t>
-        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4821,12 +4906,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F94">
@@ -4836,34 +4921,24 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="I94">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L94">
         <v>0</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>SS7677</t>
-        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4883,7 +4958,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F95">
@@ -4893,34 +4968,24 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="I95">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L95">
         <v>0</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>SS7678</t>
-        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4940,7 +5005,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F96">
@@ -4950,28 +5015,112 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="I96">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>SS7679</t>
-        </is>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>18</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>17</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
